--- a/history-results/new_version/test_results.xlsx
+++ b/history-results/new_version/test_results.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:120</t>
+          <t>00:00:00:094</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr"/>
@@ -511,7 +511,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr"/>
@@ -529,7 +529,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E5" s="5" t="inlineStr"/>
@@ -547,7 +547,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:014</t>
+          <t>00:00:00:010</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
@@ -565,7 +565,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr"/>
@@ -583,7 +583,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
@@ -601,7 +601,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:010</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
@@ -619,7 +619,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr"/>
@@ -637,7 +637,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:010</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr"/>
@@ -655,7 +655,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
@@ -673,7 +673,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:014</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
@@ -709,7 +709,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
@@ -727,7 +727,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr"/>
@@ -745,7 +745,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:014</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
@@ -763,7 +763,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
@@ -781,7 +781,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr"/>
@@ -799,7 +799,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
@@ -817,7 +817,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
@@ -835,7 +835,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:012</t>
+          <t>00:00:00:010</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr"/>
@@ -871,7 +871,7 @@
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:014</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr"/>
@@ -889,7 +889,7 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:015</t>
+          <t>00:00:00:012</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr"/>
@@ -907,7 +907,7 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:010</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:012</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr"/>
@@ -943,7 +943,7 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr"/>
@@ -961,7 +961,7 @@
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:020</t>
+          <t>00:00:00:010</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr"/>
@@ -979,7 +979,7 @@
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:010</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr"/>
@@ -997,7 +997,7 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:010</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr"/>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="D33" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E33" s="5" t="inlineStr"/>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D34" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:010</t>
         </is>
       </c>
       <c r="E34" s="5" t="inlineStr"/>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D35" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:014</t>
+          <t>00:00:00:010</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr"/>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D36" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:014</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E36" s="5" t="inlineStr"/>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="D37" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:016</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr"/>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D38" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:014</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr"/>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="D39" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E39" s="5" t="inlineStr"/>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="D40" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E40" s="5" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="D41" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E41" s="5" t="inlineStr"/>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="D42" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr"/>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="D43" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr"/>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D44" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr"/>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D45" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:010</t>
         </is>
       </c>
       <c r="E45" s="5" t="inlineStr"/>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="D46" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:014</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E46" s="5" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D47" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E47" s="5" t="inlineStr"/>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="D48" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:016</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E48" s="5" t="inlineStr"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D49" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:010</t>
         </is>
       </c>
       <c r="E49" s="5" t="inlineStr"/>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="D50" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:012</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E50" s="5" t="inlineStr"/>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="D51" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:014</t>
+          <t>00:00:00:010</t>
         </is>
       </c>
       <c r="E51" s="5" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D52" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr"/>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="D53" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:018</t>
+          <t>00:00:00:015</t>
         </is>
       </c>
       <c r="E53" s="5" t="inlineStr"/>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D54" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:010</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr"/>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="D55" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:014</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E55" s="5" t="inlineStr"/>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D56" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E56" s="5" t="inlineStr"/>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="D57" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E57" s="5" t="inlineStr"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="D58" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E58" s="5" t="inlineStr"/>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D59" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:014</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E59" s="5" t="inlineStr"/>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="D60" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:022</t>
+          <t>00:00:00:018</t>
         </is>
       </c>
       <c r="E60" s="5" t="inlineStr"/>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="D61" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:010</t>
         </is>
       </c>
       <c r="E61" s="5" t="inlineStr"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="D62" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:013</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E62" s="5" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D63" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:012</t>
+          <t>00:00:00:011</t>
         </is>
       </c>
       <c r="E63" s="5" t="inlineStr"/>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="D64" s="5" t="inlineStr">
         <is>
-          <t>00:00:00:021</t>
+          <t>00:00:00:010</t>
         </is>
       </c>
       <c r="E64" s="5" t="inlineStr"/>
